--- a/pcb/rev1/aquarius-plus-bom-1-1.xlsx
+++ b/pcb/rev1/aquarius-plus-bom-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\aquarius-plus\pcb\rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4467F1E-6B5C-49C5-8AAF-E53DE17B84B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4331C92D-2CA5-4370-84CE-FF5E366F2428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3301,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8411E95-8E65-420D-AD4E-E57680E4E114}">
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
@@ -5949,6 +5949,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
